--- a/migforecasting/cities15-16/5/d2.xlsx
+++ b/migforecasting/cities15-16/5/d2.xlsx
@@ -5,7 +5,7 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Albert\.spyder-py3\ITMO-2\migforecasting\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Albert\.spyder-py3\ITMO-2\migforecasting\cities15-16\5\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1093" uniqueCount="748">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1092" uniqueCount="748">
   <si>
     <t>2015</t>
   </si>
@@ -2667,7 +2667,7 @@
   <dimension ref="A1:S81"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="U20" sqref="U20:V20"/>
+      <selection activeCell="S5" sqref="S5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -6356,7 +6356,7 @@
         <v>740</v>
       </c>
     </row>
-    <row r="81" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="81" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A81" s="1">
         <v>79</v>
       </c>
@@ -6406,9 +6406,6 @@
         <v>742</v>
       </c>
       <c r="Q81" t="s">
-        <v>742</v>
-      </c>
-      <c r="S81" t="s">
         <v>742</v>
       </c>
     </row>
